--- a/1-Outdoor_experiments/Data/1_OutdoorExp.xlsx
+++ b/1-Outdoor_experiments/Data/1_OutdoorExp.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chavezaa\Xu's lab Dropbox\Alexandra Chavez\achaveza@uni-muenster.de\CrossResis_copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44946CD-3787-47FC-A825-5071B0EB1F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93993DCE-F7EF-4992-B660-343F26AF16BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="1485" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Outdoor" sheetId="1" r:id="rId1"/>
+    <sheet name="Outdoor" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
   <si>
     <t>TreatEnv</t>
   </si>
@@ -67,16 +67,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>Diquat</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>10.08.</t>
-  </si>
-  <si>
-    <t>Salt</t>
   </si>
   <si>
     <t>14.08.</t>
@@ -961,28 +955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9199CBD-DA81-4DDA-8C41-00DE66F06139}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1001,10 +981,10 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -1068,89 +1048,89 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>81.165599999999998</v>
+        <v>92.670599999999993</v>
       </c>
       <c r="J3">
-        <v>115.0628</v>
+        <v>431.5077</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="M3">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>77.823599999999999</v>
+        <v>112.77549999999999</v>
       </c>
       <c r="J4">
-        <v>124.6095</v>
+        <v>123.6365</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>11</v>
-      </c>
-      <c r="M4">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1159,625 +1139,625 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>111.9316</v>
+      </c>
+      <c r="J5">
+        <v>193.2525</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
         <v>14</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>92.670599999999993</v>
-      </c>
-      <c r="J5">
-        <v>431.5077</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>28</v>
-      </c>
       <c r="M5">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I6">
-        <v>112.77549999999999</v>
+        <v>85.089699999999993</v>
       </c>
       <c r="J6">
-        <v>123.6365</v>
+        <v>87.701700000000002</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>93.1995</v>
+      </c>
+      <c r="J7">
+        <v>94.866699999999994</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>96.886499999999998</v>
-      </c>
-      <c r="J7">
-        <v>99.547399999999996</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-      <c r="M7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
       <c r="I8">
-        <v>108.3236</v>
+        <v>99.880399999999995</v>
       </c>
       <c r="J8">
-        <v>165.34540000000001</v>
+        <v>653.26610000000005</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>111.9316</v>
+        <v>105.6529</v>
       </c>
       <c r="J9">
-        <v>193.2525</v>
+        <v>113.9765</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>14</v>
-      </c>
-      <c r="M9">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10">
-        <v>85.089699999999993</v>
+        <v>80.584599999999995</v>
       </c>
       <c r="J10">
-        <v>87.701700000000002</v>
+        <v>578.92079999999999</v>
       </c>
       <c r="K10">
         <v>6</v>
       </c>
       <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <v>110.6819</v>
+      </c>
+      <c r="J11">
+        <v>110.6819</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
         <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11">
-        <v>108.21469999999999</v>
-      </c>
-      <c r="J11">
-        <v>129.32769999999999</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <v>7</v>
-      </c>
-      <c r="M11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I12">
-        <v>109.7316</v>
+        <v>129.7723</v>
       </c>
       <c r="J12">
-        <v>209.93870000000001</v>
+        <v>1087.6868999999999</v>
       </c>
       <c r="K12">
         <v>7</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I13">
-        <v>93.1995</v>
+        <v>93.259</v>
       </c>
       <c r="J13">
-        <v>94.866699999999994</v>
+        <v>121.104</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>6</v>
-      </c>
-      <c r="M13" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
       <c r="I14">
-        <v>136.11879999999999</v>
+        <v>87.558999999999997</v>
       </c>
       <c r="J14">
-        <v>216.23099999999999</v>
+        <v>87.558999999999997</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
       <c r="I15">
-        <v>99.880399999999995</v>
+        <v>103.8592</v>
       </c>
       <c r="J15">
-        <v>653.26610000000005</v>
+        <v>941.8338</v>
       </c>
       <c r="K15">
         <v>5</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16">
-        <v>105.6529</v>
+        <v>90.957599999999999</v>
       </c>
       <c r="J16">
-        <v>113.9765</v>
+        <v>138.845</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
-        <v>8</v>
-      </c>
-      <c r="M16" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>93.568600000000004</v>
+      </c>
+      <c r="J17">
+        <v>95.255399999999995</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
         <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17">
-        <v>117.69970000000001</v>
-      </c>
-      <c r="J17">
-        <v>117.69970000000001</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I18">
-        <v>96.191199999999995</v>
+        <v>91.487099999999998</v>
       </c>
       <c r="J18">
-        <v>258.93169999999998</v>
+        <v>91.487099999999998</v>
       </c>
       <c r="K18">
         <v>5</v>
       </c>
       <c r="L18">
-        <v>18</v>
-      </c>
-      <c r="M18">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>21</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
       <c r="I19">
-        <v>80.584599999999995</v>
+        <v>103.76049999999999</v>
       </c>
       <c r="J19">
-        <v>578.92079999999999</v>
+        <v>605.96090000000004</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1786,1047 +1766,104 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I20">
-        <v>110.6819</v>
+        <v>80.837599999999995</v>
       </c>
       <c r="J20">
-        <v>110.6819</v>
+        <v>81.740899999999996</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I21">
-        <v>109.6889</v>
+        <v>117.0432</v>
       </c>
       <c r="J21">
-        <v>114.1159</v>
+        <v>301.07749999999999</v>
       </c>
       <c r="K21">
         <v>7</v>
       </c>
       <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
       <c r="I22">
-        <v>101.985</v>
+        <v>112.0239</v>
       </c>
       <c r="J22">
-        <v>209.1293</v>
+        <v>113.9569</v>
       </c>
       <c r="K22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
         <v>15</v>
-      </c>
-      <c r="M22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23">
-        <v>129.7723</v>
-      </c>
-      <c r="J23">
-        <v>1087.6868999999999</v>
-      </c>
-      <c r="K23">
-        <v>7</v>
-      </c>
-      <c r="L23">
-        <v>64</v>
-      </c>
-      <c r="M23">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24">
-        <v>91.883499999999998</v>
-      </c>
-      <c r="J24">
-        <v>108.9007</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>8</v>
-      </c>
-      <c r="M24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25">
-        <v>90.365399999999994</v>
-      </c>
-      <c r="J25">
-        <v>252.84950000000001</v>
-      </c>
-      <c r="K25">
-        <v>8</v>
-      </c>
-      <c r="L25">
-        <v>29</v>
-      </c>
-      <c r="M25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26">
-        <v>93.259</v>
-      </c>
-      <c r="J26">
-        <v>121.104</v>
-      </c>
-      <c r="K26">
-        <v>6</v>
-      </c>
-      <c r="L26">
-        <v>8</v>
-      </c>
-      <c r="M26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27">
-        <v>87.558999999999997</v>
-      </c>
-      <c r="J27">
-        <v>87.558999999999997</v>
-      </c>
-      <c r="K27">
-        <v>6</v>
-      </c>
-      <c r="L27">
-        <v>6</v>
-      </c>
-      <c r="M27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28">
-        <v>64.156700000000001</v>
-      </c>
-      <c r="J28">
-        <v>99.812100000000001</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
-      <c r="M28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29">
-        <v>116.52679999999999</v>
-      </c>
-      <c r="J29">
-        <v>197.47319999999999</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>16</v>
-      </c>
-      <c r="M29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30">
-        <v>103.8592</v>
-      </c>
-      <c r="J30">
-        <v>941.8338</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30">
-        <v>57</v>
-      </c>
-      <c r="M30">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31">
-        <v>92.483199999999997</v>
-      </c>
-      <c r="J31">
-        <v>121.4786</v>
-      </c>
-      <c r="K31">
-        <v>7</v>
-      </c>
-      <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="M31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32">
-        <v>67.358999999999995</v>
-      </c>
-      <c r="J32">
-        <v>135.3442</v>
-      </c>
-      <c r="K32">
-        <v>5</v>
-      </c>
-      <c r="L32">
-        <v>17</v>
-      </c>
-      <c r="M32">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33">
-        <v>90.957599999999999</v>
-      </c>
-      <c r="J33">
-        <v>138.845</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-      <c r="L33">
-        <v>9</v>
-      </c>
-      <c r="M33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34">
-        <v>93.568600000000004</v>
-      </c>
-      <c r="J34">
-        <v>95.255399999999995</v>
-      </c>
-      <c r="K34">
-        <v>5</v>
-      </c>
-      <c r="L34">
-        <v>5</v>
-      </c>
-      <c r="M34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35">
-        <v>95.414500000000004</v>
-      </c>
-      <c r="J35">
-        <v>130.27629999999999</v>
-      </c>
-      <c r="K35">
-        <v>7</v>
-      </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
-      <c r="M35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36">
-        <v>113.0544</v>
-      </c>
-      <c r="J36">
-        <v>369.36410000000001</v>
-      </c>
-      <c r="K36">
-        <v>7</v>
-      </c>
-      <c r="L36">
-        <v>30</v>
-      </c>
-      <c r="M36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37">
-        <v>91.487099999999998</v>
-      </c>
-      <c r="J37">
-        <v>91.487099999999998</v>
-      </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
-        <v>6</v>
-      </c>
-      <c r="M37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38">
-        <v>103.76049999999999</v>
-      </c>
-      <c r="J38">
-        <v>605.96090000000004</v>
-      </c>
-      <c r="K38">
-        <v>7</v>
-      </c>
-      <c r="L38">
-        <v>44</v>
-      </c>
-      <c r="M38">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39">
-        <v>80.837599999999995</v>
-      </c>
-      <c r="J39">
-        <v>81.740899999999996</v>
-      </c>
-      <c r="K39">
-        <v>5</v>
-      </c>
-      <c r="L39">
-        <v>7</v>
-      </c>
-      <c r="M39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40">
-        <v>97.167000000000002</v>
-      </c>
-      <c r="J40">
-        <v>106.23009999999999</v>
-      </c>
-      <c r="K40">
-        <v>6</v>
-      </c>
-      <c r="L40">
-        <v>7</v>
-      </c>
-      <c r="M40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41">
-        <v>93.302000000000007</v>
-      </c>
-      <c r="J41">
-        <v>151.52099999999999</v>
-      </c>
-      <c r="K41">
-        <v>6</v>
-      </c>
-      <c r="L41">
-        <v>13</v>
-      </c>
-      <c r="M41">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42">
-        <v>117.0432</v>
-      </c>
-      <c r="J42">
-        <v>301.07749999999999</v>
-      </c>
-      <c r="K42">
-        <v>7</v>
-      </c>
-      <c r="L42">
-        <v>23</v>
-      </c>
-      <c r="M42">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43">
-        <v>112.0239</v>
-      </c>
-      <c r="J43">
-        <v>113.9569</v>
-      </c>
-      <c r="K43">
-        <v>6</v>
-      </c>
-      <c r="L43">
-        <v>6</v>
-      </c>
-      <c r="M43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44">
-        <v>107.61750000000001</v>
-      </c>
-      <c r="J44">
-        <v>131.6987</v>
-      </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44">
-        <v>8</v>
-      </c>
-      <c r="M44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45">
-        <v>135.43709999999999</v>
-      </c>
-      <c r="J45">
-        <v>262.16109999999998</v>
-      </c>
-      <c r="K45">
-        <v>6</v>
-      </c>
-      <c r="L45">
-        <v>16</v>
-      </c>
-      <c r="M45">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
